--- a/data-dictionary.xlsx
+++ b/data-dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHubClones\New-Data-Screening\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chop-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B058C3-4DC3-4F51-9BA0-91B6A3B9188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="2" r:id="rId1"/>
@@ -708,7 +709,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,7 +835,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr=":key:"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr=":key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -894,7 +901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr=":key:"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr=":key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -949,7 +962,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1004,7 +1023,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr=":old_key:"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1064,7 +1089,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr=":old_key:"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1119,7 +1150,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1179,7 +1216,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr=":old_key:"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1234,7 +1277,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1294,7 +1343,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr=":old_key:"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1349,7 +1404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr=":old_key:">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1654,10 +1715,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2035,11 +2096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2108,7 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2236,7 +2297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2393,11 +2454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data-dictionary.xlsx
+++ b/data-dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chop-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B058C3-4DC3-4F51-9BA0-91B6A3B9188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837DC77-3A86-4A47-B6F1-9FF5FDA0622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,6 +799,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1718,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="B8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,7 +2304,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,7 +2543,7 @@
       <c r="D5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2638,7 +2641,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-dictionary.xlsx
+++ b/data-dictionary.xlsx
@@ -8,28 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chop-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837DC77-3A86-4A47-B6F1-9FF5FDA0622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62256CD1-1404-47BC-B574-1008EF7D27B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patients" sheetId="2" r:id="rId1"/>
     <sheet name="Encounters" sheetId="3" r:id="rId2"/>
-    <sheet name="Procedures" sheetId="5" r:id="rId3"/>
-    <sheet name="Medications" sheetId="1" r:id="rId4"/>
-    <sheet name="Allergies" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Procedures" sheetId="5" r:id="rId4"/>
+    <sheet name="Medications" sheetId="1" r:id="rId5"/>
+    <sheet name="Allergies" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>Column Name</t>
   </si>
@@ -704,13 +716,34 @@
   </si>
   <si>
     <t>Diagnosis code from SNOMED-CT specifying why this procedure was performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Airfair</t>
+  </si>
+  <si>
+    <t>3 day tic x 5 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 nights Hotel</t>
+  </si>
+  <si>
+    <t>1 x 5 = Multipass (AK)</t>
+  </si>
+  <si>
+    <t>2 x 5 = Premier pass (MK,EP)</t>
+  </si>
+  <si>
+    <t>stroller</t>
+  </si>
+  <si>
+    <t>Avatar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +768,13 @@
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -784,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,6 +844,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2102,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="B8:E9"/>
     </sheetView>
   </sheetViews>
@@ -2300,6 +2344,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C95DD94-72FA-486C-A85B-2AD76C95F2B4}">
+  <dimension ref="L6:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="35.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="8" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="10">
+        <v>5714</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="9">
+        <v>2623.06</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="10">
+        <v>2391</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="10">
+        <v>1326</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="10">
+        <v>133</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="10">
+        <v>72</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="10">
+        <v>3194</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2456,7 +2577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2636,7 +2757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
